--- a/biology/Neurosciences/Micro-ARN_184/Micro-ARN_184.xlsx
+++ b/biology/Neurosciences/Micro-ARN_184/Micro-ARN_184.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un micro ARN impliqué dans la neurogénèse, c'est-à-dire la création de neurones. Il inhibe la différenciation des cellules souches neurales et va donc promouvoir la prolifération des neurones, notamment au cours de l'embryogénèse. Il est particulièrement exprimé dans les cellules nerveuses et dans la rétine. 
-Il a ainsi un role complémentaire à miARN 124 qui permet la différenciation à la suite de la prolifération engendrée par miARN 184[1].
+Il a ainsi un role complémentaire à miARN 124 qui permet la différenciation à la suite de la prolifération engendrée par miARN 184.
 Plusieurs cibles pour miR-184 ont été décrites comprenant des médiateurs du développement neurologique, de l' apoptose et il a été suggéré que miR-184 joue un rôle essentiel dans le développement. 
 ↑ (en) Hua-Shun Li, Denan Wang, Qin Shen et Marcus D. Schonemann, « Inactivation of Numb and Numblike in Embryonic Dorsal Forebrain Impairs Neurogenesis and Disrupts Cortical Morphogenesis », Neuron, vol. 40, no 6,‎ 18 décembre 2003, p. 1105–1118 (ISSN 0896-6273, PMID 14687546, DOI 10.1016/S0896-6273(03)00755-4, lire en ligne, consulté le 23 mars 2021)
  Portail des neurosciences                     </t>
